--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
